--- a/biology/Médecine/Aide_médicale_urgente_en_Belgique/Aide_médicale_urgente_en_Belgique.xlsx
+++ b/biology/Médecine/Aide_médicale_urgente_en_Belgique/Aide_médicale_urgente_en_Belgique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aide_m%C3%A9dicale_urgente_en_Belgique</t>
+          <t>Aide_médicale_urgente_en_Belgique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En Belgique, l'aide médicale urgente (souvent abrégée AMU) est l'un des trois services d'urgence du pays avec la police et les services de sécurité civile (pompiers et protection civile). Elle désigne les moyens médicaux de premiers secours du Royaume. Ils sont sous l'autorité du service public fédéral Santé publique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aide_m%C3%A9dicale_urgente_en_Belgique</t>
+          <t>Aide_médicale_urgente_en_Belgique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1956, la Belgique est frappée par une épidémie de poliomyélite. Afin de prendre en charge les malades atteints de complications mais aussi pour faire face à l’augmentation du nombre d’accidents de la route, le ministre Edmond Leburton met en place le premier service national de secours. Celui-ci est composé d’une quinzaine d’ambulances et relève de la responsabilité des Commissions d’Assistance Publique (communes).
 En 1959, Anvers accueille la première centrale téléphonique de réception d’appels d’urgence. Mise en place à titre expérimental, celle-ci se voit attribuer le numéro « 900 ». Très vite, son succès entraîne la création de quinze autres centrales qui, par facilité, sont installées dans des casernes des services d’incendie. En 1963, la totalité du territoire belge est couverte: 16 centrales « 900 » assurent la couverture de 40 zones téléphoniques.
 La loi du 8 juillet transfère la responsabilité de l’aide médicale urgente des communes vers l’état national (Moniteur belge du 25 juillet 1964). Pendant près de 20 ans, l’organisation consiste essentiellement en l’envoi d’une ambulance pour transporter le blessé ou le malade vers un hôpital.
-Le 11 juin 1974 parait un arrêté royal lançant le programme héli-secours, visant à amener des secours héliportés sur le territoire national. La mission est confiée à la protection civile avec l'acquisition d'un hélicoptère Sud-Aviation SA316 Alouette III immatriculé « OO-PCB » et basé initialement au fort de Walem, près de Malines, pour la somme de 15 827 987 francs belges (plus 600 000 francs de matériel médical)[1]..
+Le 11 juin 1974 parait un arrêté royal lançant le programme héli-secours, visant à amener des secours héliportés sur le territoire national. La mission est confiée à la protection civile avec l'acquisition d'un hélicoptère Sud-Aviation SA316 Alouette III immatriculé « OO-PCB » et basé initialement au fort de Walem, près de Malines, pour la somme de 15 827 987 francs belges (plus 600 000 francs de matériel médical)..
 Ce n’est qu’au début des années 1980 que l’aide médicale urgente commence à se médicaliser. À l’initiative des services d’urgence hospitaliers, les premiers véhicules rapides d’interventions médicales (V.I.M.) apparaissent sur les routes belges. Ceux-ci ne se contentent plus d’assurer uniquement le transport: équipés d’un matériel complet de réanimation, ils emportent une équipe médicale (médecin urgentiste et infirmier(ère) urgentiste) afin de prodiguer les premiers soins directement sur le lieu de détresse.
 Ce n’est que 10 ans plus tard que l’efficacité d'une intervention médicale extra-hospitalière est reconnue. L’arrêté royal du 10 avril 1995 instaure la fonction « SMUR » (Services Mobiles d’Urgences et de Réanimation) aujourd’hui généralisée: celle-ci vise « à limiter l’intervalle médical libre chez les personnes dont l’état de santé comporte une menace réelle ou potentielle pour leur vie ou menace gravement un de leurs membres ou de leurs organes » (Moniteur belge du 10 mai 1965).
 Entretemps, le numéro « 900 » est devenu le « 100 » en 1987. À l’heure actuelle, c'est le 112 qui remplace petit à petit le 100. À terme, ce numéro devrait servir pour les trois grands services d'urgence: l'aide médicale, les pompiers et la police. Il existe une centrale « 112 » par province (à l’exception du Brabant wallon, couvert par les centrales de Bruxelles, Namur, Liège, Mons et Louvain, celle de Wavre n’étant toujours pas opérationnelle). Le service « SMUR » couvre l’ensemble du territoire national avec un intervalle médical libre inférieur à 15 minutes pour 90 % de la population.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aide_m%C3%A9dicale_urgente_en_Belgique</t>
+          <t>Aide_médicale_urgente_en_Belgique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Fondement légal</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aide médicale urgente en Belgique est régie par la loi du 8 juillet 1964 (Moniteur belge du 25 juillet 1964). Celle-ci a été modifiée à de nombreuses reprises et depuis la loi du 22 février 1998 (Moniteur belge du 10 mars 1998), il faut entendre par aide médicale urgente « la dispensation immédiate de secours appropriés à toutes les personnes dont l’état de santé par suite d’un accident ou d’une maladie soudaine ou de la complication soudaine d’une maladie requiert une intervention urgente après un appel au système d’appel unifié par lequel sont assurés les secours, le transport et l’accueil dans un service hospitalier adéquat ».
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aide_m%C3%A9dicale_urgente_en_Belgique</t>
+          <t>Aide_médicale_urgente_en_Belgique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Marques distinctives</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En Belgique, les véhicules agréés à l'aide médicale urgente (ambulances) sont reconnaissables à :
 leur couleur jaune moyen
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aide_m%C3%A9dicale_urgente_en_Belgique</t>
+          <t>Aide_médicale_urgente_en_Belgique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Organisation belge</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aide médicale urgente (qui a été à l'origine de l'acronyme « SAMU ») est articulée en Belgique autour des Centres d'appel unifiés « 100 » ou centrale 100 (c'est le numéro formé par téléphone pour obtenir les secours médicaux et pompiers en Belgique, il est doublé par le numéro européen 112 qui est censé être polyglotte).
 Ces centres d'appel répartissent les moyens disponibles parmi lesquels les ambulances, les SMUR ainsi que les moyens techniques mis à disposition par les services d'incendie. Un médecin DIR-MED (directeur des soins médicaux) est également de garde dans chaque province pour gérer les situations d'exception (catastrophes).
@@ -639,7 +659,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aide_m%C3%A9dicale_urgente_en_Belgique</t>
+          <t>Aide_médicale_urgente_en_Belgique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -657,7 +677,9 @@
           <t>Financement et frais d’intervention</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fonctionnement des centres d’appel unifiés est financé par l’État.
 Les frais d’intervention sont à charge de la personne transportée. Les services d’ambulance ne peuvent toutefois facturer librement leurs prestations, les tarifs étant fixés par l’arrêté royal du 7 avril 1995 (Moniteur belge du 22 août 1995). Ceux-ci sont calculés en fonction du nombre total de kilomètres parcourus par l’ambulance, depuis son départ jusqu’à son retour à sa base. Ils comprennent: le coût du trajet et de la prise en charge, les secours, l’accompagnement par les ambulanciers, les frais d’amortissement et d’exploitation de l’ambulance ainsi que de son matériel. À noter que les produits sur prescription médicale et les éventuelles prestations effectuées par un médecin ne sont pas compris dans ce tarif. Les tarifs sont indexés chaque année.
@@ -673,7 +695,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Aide_m%C3%A9dicale_urgente_en_Belgique</t>
+          <t>Aide_médicale_urgente_en_Belgique</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -691,7 +713,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le brevet AMU désigne également la formation délivrée aux secouristes-ambulanciers, d'une durée de minimum 160 heures, cette formation comprend des cours théoriques (80h), des exercices pratiques (40h) et un stage de (40h).
 Le brevet est valable 5 ans.
@@ -709,7 +733,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Aide_m%C3%A9dicale_urgente_en_Belgique</t>
+          <t>Aide_médicale_urgente_en_Belgique</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -727,7 +751,9 @@
           <t>Services participants</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Services d'Incendie, (principalement avec des ambulances et des chauffeurs SMUR ou PIT)
 La Croix-Rouge de Belgique (principalement avec des ambulances)
@@ -752,7 +778,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aide_m%C3%A9dicale_urgente_en_Belgique</t>
+          <t>Aide_médicale_urgente_en_Belgique</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -770,9 +796,11 @@
           <t>Centre d’appels d’urgence</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les appels d'aide médicale urgente en Belgique se font via le numéro européen 112. Celui-ci est traité par des centrales d'urgences faisant office de centre de réception des appels mais également de dispatching pour les moyens médicaux à mettre en œuvre. Il n'existe toutefois pas de régulation médicosanitaire des urgences. Au contraire, la loi programme du 9 juillet 2004 (Moniteur belge du 15 juillet 2004) modifie complètement la gestion des appels aux services de secours en créant une « Agence des appels aux services de secours ». Cette agence devrait regrouper les appels aux numéros 112, 100 et 101 pour les trois premières disciplines de l'urgence, à savoir les pompiers (discipline 1), l'aide médicale urgente (discipline 2) et la police (discipline 3). Elle doit toutefois encore être concrétisée par des arrêtés d’exécution qui n’ont pas encore été publiés. Elle confortera l'aspect de réception des appels en cantonnant le rôle du préposé à celui d'un « calltaker »[2] civil, employé par le service public fédéral Intérieur mais toujours tenu par le secret médical. L'aspect des futurs « dispatching de la discipline 2 » reste encore à préciser.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les appels d'aide médicale urgente en Belgique se font via le numéro européen 112. Celui-ci est traité par des centrales d'urgences faisant office de centre de réception des appels mais également de dispatching pour les moyens médicaux à mettre en œuvre. Il n'existe toutefois pas de régulation médicosanitaire des urgences. Au contraire, la loi programme du 9 juillet 2004 (Moniteur belge du 15 juillet 2004) modifie complètement la gestion des appels aux services de secours en créant une « Agence des appels aux services de secours ». Cette agence devrait regrouper les appels aux numéros 112, 100 et 101 pour les trois premières disciplines de l'urgence, à savoir les pompiers (discipline 1), l'aide médicale urgente (discipline 2) et la police (discipline 3). Elle doit toutefois encore être concrétisée par des arrêtés d’exécution qui n’ont pas encore été publiés. Elle confortera l'aspect de réception des appels en cantonnant le rôle du préposé à celui d'un « calltaker » civil, employé par le service public fédéral Intérieur mais toujours tenu par le secret médical. L'aspect des futurs « dispatching de la discipline 2 » reste encore à préciser.
 </t>
         </is>
       </c>
